--- a/natmiOut/OldD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.11404734787</v>
+        <v>6.40767</v>
       </c>
       <c r="H2">
-        <v>4.11404734787</v>
+        <v>19.22301</v>
       </c>
       <c r="I2">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="J2">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>28.06348944494601</v>
+        <v>52.10226416477999</v>
       </c>
       <c r="R2">
-        <v>28.06348944494601</v>
+        <v>468.9203774830199</v>
       </c>
       <c r="S2">
-        <v>0.0004291263597012902</v>
+        <v>0.0007172070477125466</v>
       </c>
       <c r="T2">
-        <v>0.0004291263597012902</v>
+        <v>0.0007172070477125467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.11404734787</v>
+        <v>6.40767</v>
       </c>
       <c r="H3">
-        <v>4.11404734787</v>
+        <v>19.22301</v>
       </c>
       <c r="I3">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="J3">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>998.3755051929335</v>
+        <v>1559.47564844444</v>
       </c>
       <c r="R3">
-        <v>998.3755051929335</v>
+        <v>14035.28083599996</v>
       </c>
       <c r="S3">
-        <v>0.01526642818238473</v>
+        <v>0.02146676240907983</v>
       </c>
       <c r="T3">
-        <v>0.01526642818238473</v>
+        <v>0.02146676240907983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.11404734787</v>
+        <v>6.40767</v>
       </c>
       <c r="H4">
-        <v>4.11404734787</v>
+        <v>19.22301</v>
       </c>
       <c r="I4">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="J4">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>363.3585454923508</v>
+        <v>666.03012536935</v>
       </c>
       <c r="R4">
-        <v>363.3585454923508</v>
+        <v>5994.27112832415</v>
       </c>
       <c r="S4">
-        <v>0.005556213178670451</v>
+        <v>0.009168152431783783</v>
       </c>
       <c r="T4">
-        <v>0.005556213178670451</v>
+        <v>0.009168152431783786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.11404734787</v>
+        <v>6.40767</v>
       </c>
       <c r="H5">
-        <v>4.11404734787</v>
+        <v>19.22301</v>
       </c>
       <c r="I5">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="J5">
-        <v>0.02301191411892494</v>
+        <v>0.03429978795594129</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>115.1079367413938</v>
+        <v>214.13631754072</v>
       </c>
       <c r="R5">
-        <v>115.1079367413938</v>
+        <v>1927.22685786648</v>
       </c>
       <c r="S5">
-        <v>0.001760146398168474</v>
+        <v>0.00294766606736513</v>
       </c>
       <c r="T5">
-        <v>0.001760146398168474</v>
+        <v>0.002947666067365131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>157.754974557979</v>
+        <v>157.7959793333333</v>
       </c>
       <c r="H6">
-        <v>157.754974557979</v>
+        <v>473.387938</v>
       </c>
       <c r="I6">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819405</v>
       </c>
       <c r="J6">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819404</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>1076.106979101171</v>
+        <v>1283.076032218497</v>
       </c>
       <c r="R6">
-        <v>1076.106979101171</v>
+        <v>11547.68428996647</v>
       </c>
       <c r="S6">
-        <v>0.01645504104173338</v>
+        <v>0.01766201887403222</v>
       </c>
       <c r="T6">
-        <v>0.01645504104173338</v>
+        <v>0.01766201887403222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>157.754974557979</v>
+        <v>157.7959793333333</v>
       </c>
       <c r="H7">
-        <v>157.754974557979</v>
+        <v>473.387938</v>
       </c>
       <c r="I7">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819405</v>
       </c>
       <c r="J7">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819404</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>38283.15259972975</v>
+        <v>38403.81717422643</v>
       </c>
       <c r="R7">
-        <v>38283.15259972975</v>
+        <v>345634.3545680378</v>
       </c>
       <c r="S7">
-        <v>0.5853979757306912</v>
+        <v>0.5286428292119815</v>
       </c>
       <c r="T7">
-        <v>0.5853979757306912</v>
+        <v>0.5286428292119815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>157.754974557979</v>
+        <v>157.7959793333333</v>
       </c>
       <c r="H8">
-        <v>157.754974557979</v>
+        <v>473.387938</v>
       </c>
       <c r="I8">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819405</v>
       </c>
       <c r="J8">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819404</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>13933.14496714474</v>
+        <v>16401.73041029881</v>
       </c>
       <c r="R8">
-        <v>13933.14496714474</v>
+        <v>147615.5736926893</v>
       </c>
       <c r="S8">
-        <v>0.2130554644913538</v>
+        <v>0.2257759203658434</v>
       </c>
       <c r="T8">
-        <v>0.2130554644913538</v>
+        <v>0.2257759203658434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>157.754974557979</v>
+        <v>157.7959793333333</v>
       </c>
       <c r="H9">
-        <v>157.754974557979</v>
+        <v>473.387938</v>
       </c>
       <c r="I9">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819405</v>
       </c>
       <c r="J9">
-        <v>0.8824020774191915</v>
+        <v>0.8446703140819404</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>4413.865008496212</v>
+        <v>5273.344279148513</v>
       </c>
       <c r="R9">
-        <v>4413.865008496212</v>
+        <v>47460.09851233662</v>
       </c>
       <c r="S9">
-        <v>0.06749359615541307</v>
+        <v>0.07258954563008332</v>
       </c>
       <c r="T9">
-        <v>0.06749359615541307</v>
+        <v>0.07258954563008332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.52079595057824</v>
+        <v>3.083191333333334</v>
       </c>
       <c r="H10">
-        <v>1.52079595057824</v>
+        <v>9.249574000000001</v>
       </c>
       <c r="I10">
-        <v>0.008506568555958473</v>
+        <v>0.0165040972710719</v>
       </c>
       <c r="J10">
-        <v>0.008506568555958473</v>
+        <v>0.01650409727107189</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>10.37393046267821</v>
+        <v>25.07015019810533</v>
       </c>
       <c r="R10">
-        <v>10.37393046267821</v>
+        <v>225.631351782948</v>
       </c>
       <c r="S10">
-        <v>0.0001586305588966998</v>
+        <v>0.0003450999433043385</v>
       </c>
       <c r="T10">
-        <v>0.0001586305588966998</v>
+        <v>0.0003450999433043385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.52079595057824</v>
+        <v>3.083191333333334</v>
       </c>
       <c r="H11">
-        <v>1.52079595057824</v>
+        <v>9.249574000000001</v>
       </c>
       <c r="I11">
-        <v>0.008506568555958473</v>
+        <v>0.0165040972710719</v>
       </c>
       <c r="J11">
-        <v>0.008506568555958473</v>
+        <v>0.01650409727107189</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>369.0588116930675</v>
+        <v>750.3760031069451</v>
       </c>
       <c r="R11">
-        <v>369.0588116930675</v>
+        <v>6753.384027962506</v>
       </c>
       <c r="S11">
-        <v>0.005643377481200991</v>
+        <v>0.01032920481460511</v>
       </c>
       <c r="T11">
-        <v>0.005643377481200991</v>
+        <v>0.01032920481460511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.52079595057824</v>
+        <v>3.083191333333334</v>
       </c>
       <c r="H12">
-        <v>1.52079595057824</v>
+        <v>9.249574000000001</v>
       </c>
       <c r="I12">
-        <v>0.008506568555958473</v>
+        <v>0.0165040972710719</v>
       </c>
       <c r="J12">
-        <v>0.008506568555958473</v>
+        <v>0.01650409727107189</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>134.3188733301442</v>
+        <v>320.4750416731345</v>
       </c>
       <c r="R12">
-        <v>134.3188733301442</v>
+        <v>2884.275375058211</v>
       </c>
       <c r="S12">
-        <v>0.002053905992853071</v>
+        <v>0.004411458161914502</v>
       </c>
       <c r="T12">
-        <v>0.002053905992853071</v>
+        <v>0.004411458161914501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.52079595057824</v>
+        <v>3.083191333333334</v>
       </c>
       <c r="H13">
-        <v>1.52079595057824</v>
+        <v>9.249574000000001</v>
       </c>
       <c r="I13">
-        <v>0.008506568555958473</v>
+        <v>0.0165040972710719</v>
       </c>
       <c r="J13">
-        <v>0.008506568555958473</v>
+        <v>0.01650409727107189</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>42.55072177678289</v>
+        <v>103.0363983153725</v>
       </c>
       <c r="R13">
-        <v>42.55072177678289</v>
+        <v>927.3275848383521</v>
       </c>
       <c r="S13">
-        <v>0.0006506545230077101</v>
+        <v>0.001418334351247945</v>
       </c>
       <c r="T13">
-        <v>0.0006506545230077101</v>
+        <v>0.001418334351247945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.3891975096442</v>
+        <v>19.52685066666667</v>
       </c>
       <c r="H14">
-        <v>15.3891975096442</v>
+        <v>58.580552</v>
       </c>
       <c r="I14">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="J14">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>104.9755983245277</v>
+        <v>158.7773920537227</v>
       </c>
       <c r="R14">
-        <v>104.9755983245277</v>
+        <v>1428.996528483504</v>
       </c>
       <c r="S14">
-        <v>0.001605210088176762</v>
+        <v>0.002185629865109123</v>
       </c>
       <c r="T14">
-        <v>0.001605210088176762</v>
+        <v>0.002185629865109123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.3891975096442</v>
+        <v>19.52685066666667</v>
       </c>
       <c r="H15">
-        <v>15.3891975096442</v>
+        <v>58.580552</v>
       </c>
       <c r="I15">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="J15">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>3734.570008329996</v>
+        <v>4752.374592555133</v>
       </c>
       <c r="R15">
-        <v>3734.570008329996</v>
+        <v>42771.3713329962</v>
       </c>
       <c r="S15">
-        <v>0.05710631373437001</v>
+        <v>0.06541820409898066</v>
       </c>
       <c r="T15">
-        <v>0.05710631373437001</v>
+        <v>0.06541820409898066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.3891975096442</v>
+        <v>19.52685066666667</v>
       </c>
       <c r="H16">
-        <v>15.3891975096442</v>
+        <v>58.580552</v>
       </c>
       <c r="I16">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="J16">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>1359.19593300109</v>
+        <v>2029.672376634342</v>
       </c>
       <c r="R16">
-        <v>1359.19593300109</v>
+        <v>18267.05138970908</v>
       </c>
       <c r="S16">
-        <v>0.02078383032137857</v>
+        <v>0.02793919528076178</v>
       </c>
       <c r="T16">
-        <v>0.02078383032137857</v>
+        <v>0.02793919528076179</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.3891975096442</v>
+        <v>19.52685066666667</v>
       </c>
       <c r="H17">
-        <v>15.3891975096442</v>
+        <v>58.580552</v>
       </c>
       <c r="I17">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="J17">
-        <v>0.08607943990592505</v>
+        <v>0.1045258006910464</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>430.5781201954496</v>
+        <v>652.5629276987662</v>
       </c>
       <c r="R17">
-        <v>430.5781201954496</v>
+        <v>5873.066349288896</v>
       </c>
       <c r="S17">
-        <v>0.006584085761999698</v>
+        <v>0.008982771446194875</v>
       </c>
       <c r="T17">
-        <v>0.006584085761999698</v>
+        <v>0.008982771446194875</v>
       </c>
     </row>
   </sheetData>
